--- a/public/docs/Speaking_dialogs.xlsx
+++ b/public/docs/Speaking_dialogs.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\01_WebDevelop\01_FullStack\04_TeachLearnFront\public\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B155F2B-35FA-4836-ADD1-BD59C92AF487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D455273A-8DFA-4F5C-800A-2F1DD49B1ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0062FF2-E2FC-4C90-8934-4D3B04DA67C9}"/>
+    <workbookView xWindow="11508" yWindow="-12" windowWidth="11544" windowHeight="12264" activeTab="1" xr2:uid="{C0062FF2-E2FC-4C90-8934-4D3B04DA67C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1354" uniqueCount="70">
   <si>
     <t>[</t>
   </si>
@@ -147,13 +148,112 @@
   </si>
   <si>
     <t>", a_translate: "</t>
+  </si>
+  <si>
+    <t>Hi, what is your name?</t>
+  </si>
+  <si>
+    <t>Where are you from?</t>
+  </si>
+  <si>
+    <t>How old are you?</t>
+  </si>
+  <si>
+    <t>Where do you live?</t>
+  </si>
+  <si>
+    <t>What do you do?</t>
+  </si>
+  <si>
+    <t>Do you like your job?</t>
+  </si>
+  <si>
+    <t>What are your hobbies?</t>
+  </si>
+  <si>
+    <t>Nice to meet you, David!</t>
+  </si>
+  <si>
+    <t>My name is David.</t>
+  </si>
+  <si>
+    <t>I am from England.</t>
+  </si>
+  <si>
+    <t>I am 30 years old.</t>
+  </si>
+  <si>
+    <t>I live in London.</t>
+  </si>
+  <si>
+    <t>I am an engineer.</t>
+  </si>
+  <si>
+    <t>Yes, I like it very much.</t>
+  </si>
+  <si>
+    <t>I like playing football and watching films.</t>
+  </si>
+  <si>
+    <t>Nice to meet you too, Anna!</t>
+  </si>
+  <si>
+    <t>Привіт, як тебе звати?</t>
+  </si>
+  <si>
+    <t>Звідки ти?</t>
+  </si>
+  <si>
+    <t>Скільки тобі років?</t>
+  </si>
+  <si>
+    <t>Де ти живеш?</t>
+  </si>
+  <si>
+    <t>Ким ти працюєш?</t>
+  </si>
+  <si>
+    <t>Тобі подобається твоя робота?</t>
+  </si>
+  <si>
+    <t>Які в тебе хобі?</t>
+  </si>
+  <si>
+    <t>Радий з тобою познайомитись, Девіде!</t>
+  </si>
+  <si>
+    <t>Мене звати Девід.</t>
+  </si>
+  <si>
+    <t>Я з Англії.</t>
+  </si>
+  <si>
+    <t>Мені 30 років.</t>
+  </si>
+  <si>
+    <t>Я живу в Лондоні.</t>
+  </si>
+  <si>
+    <t>Я інженер.</t>
+  </si>
+  <si>
+    <t>Так, мені це дуже подобається.</t>
+  </si>
+  <si>
+    <t>Мені подобається грати у футбол і дивитися фільми.</t>
+  </si>
+  <si>
+    <t>Також радий познайомитись з тобою, Анно!</t>
+  </si>
+  <si>
+    <t>Так, мені вона дуже подобається.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +268,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,11 +301,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -534,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69FBB4F4-1DC4-405A-8B2E-13838DF638AC}">
   <dimension ref="B2:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,9 +654,9 @@
     <col min="4" max="4" width="13.109375" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="10.44140625" customWidth="1"/>
-    <col min="7" max="7" width="15.88671875" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
     <col min="8" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="9" max="9" width="24.21875" customWidth="1"/>
     <col min="11" max="11" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -573,168 +682,264 @@
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" t="s">
         <v>3</v>
       </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
       <c r="H4" t="s">
         <v>36</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="J4" t="s">
         <v>4</v>
       </c>
       <c r="K4" t="str">
         <f>B4&amp;C4&amp;D4&amp;E4&amp;F4&amp;G4&amp;H4&amp;I4&amp;J4</f>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <v>{question: "Привіт, як тебе звати?", q_translate: "Hi, what is your name?", answer: "Мене звати Девід.", a_translate: "My name is David."},</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>54</v>
+      </c>
       <c r="D5" t="s">
         <v>35</v>
       </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" t="s">
         <v>3</v>
       </c>
+      <c r="G5" t="s">
+        <v>62</v>
+      </c>
       <c r="H5" t="s">
         <v>36</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
       <c r="K5" t="str">
-        <f t="shared" ref="K5:K8" si="0">B5&amp;C5&amp;D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5</f>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <f t="shared" ref="K5:K7" si="0">B5&amp;C5&amp;D5&amp;E5&amp;F5&amp;G5&amp;H5&amp;I5&amp;J5</f>
+        <v>{question: "Звідки ти?", q_translate: "Where are you from?", answer: "Я з Англії.", a_translate: "I am from England."},</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
+      <c r="E6" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="F6" t="s">
         <v>3</v>
       </c>
+      <c r="G6" t="s">
+        <v>63</v>
+      </c>
       <c r="H6" t="s">
         <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="J6" t="s">
         <v>4</v>
       </c>
       <c r="K6" t="str">
         <f t="shared" si="0"/>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <v>{question: "Скільки тобі років?", q_translate: "How old are you?", answer: "Мені 30 років.", a_translate: "I am 30 years old."},</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
+      <c r="E7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="F7" t="s">
         <v>3</v>
       </c>
+      <c r="G7" t="s">
+        <v>64</v>
+      </c>
       <c r="H7" t="s">
         <v>36</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="J7" t="s">
         <v>4</v>
       </c>
       <c r="K7" t="str">
         <f t="shared" si="0"/>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <v>{question: "Де ти живеш?", q_translate: "Where do you live?", answer: "Я живу в Лондоні.", a_translate: "I live in London."},</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="F8" t="s">
         <v>3</v>
       </c>
+      <c r="G8" t="s">
+        <v>65</v>
+      </c>
       <c r="H8" t="s">
         <v>36</v>
       </c>
+      <c r="I8" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="J8" t="s">
         <v>4</v>
       </c>
       <c r="K8" t="str">
-        <f t="shared" si="0"/>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <f>B8&amp;C8&amp;D8&amp;E8&amp;F8&amp;G8&amp;H8&amp;I8&amp;J8</f>
+        <v>{question: "Ким ти працюєш?", q_translate: "What do you do?", answer: "Я інженер.", a_translate: "I am an engineer."},</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
+      <c r="E9" s="2" t="s">
+        <v>42</v>
+      </c>
       <c r="F9" t="s">
         <v>3</v>
       </c>
+      <c r="G9" t="s">
+        <v>69</v>
+      </c>
       <c r="H9" t="s">
         <v>36</v>
       </c>
+      <c r="I9" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="J9" t="s">
         <v>4</v>
       </c>
       <c r="K9" t="str">
-        <f t="shared" ref="K9:K11" si="1">B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9</f>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <f>B9&amp;C9&amp;D9&amp;E9&amp;F9&amp;G9&amp;H9&amp;I9&amp;J9</f>
+        <v>{question: "Тобі подобається твоя робота?", q_translate: "Do you like your job?", answer: "Так, мені вона дуже подобається.", a_translate: "Yes, I like it very much."},</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
+      <c r="E10" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" t="s">
         <v>3</v>
       </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
       <c r="H10" t="s">
         <v>36</v>
       </c>
+      <c r="I10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="J10" t="s">
         <v>4</v>
       </c>
       <c r="K10" t="str">
-        <f t="shared" si="1"/>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <f t="shared" ref="K10:K11" si="1">B10&amp;C10&amp;D10&amp;E10&amp;F10&amp;G10&amp;H10&amp;I10&amp;J10</f>
+        <v>{question: "Які в тебе хобі?", q_translate: "What are your hobbies?", answer: "Мені подобається грати у футбол і дивитися фільми.", a_translate: "I like playing football and watching films."},</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
+      <c r="E11" s="2" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" t="s">
         <v>3</v>
       </c>
+      <c r="G11" t="s">
+        <v>68</v>
+      </c>
       <c r="H11" t="s">
         <v>36</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="J11" t="s">
         <v>4</v>
       </c>
       <c r="K11" t="str">
         <f t="shared" si="1"/>
-        <v>{question: "", q_translate: "", answer: "", a_translate: ""},</v>
+        <v>{question: "Радий з тобою познайомитись, Девіде!", q_translate: "Nice to meet you, David!", answer: "Також радий познайомитись з тобою, Анно!", a_translate: "Nice to meet you too, Anna!"},</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.3">
@@ -5812,7 +6017,7 @@
         <v>1</v>
       </c>
       <c r="K324" t="str">
-        <f t="shared" ref="K324:K332" si="77">B324</f>
+        <f t="shared" ref="K324" si="77">B324</f>
         <v>],</v>
       </c>
     </row>
@@ -6406,4 +6611,159 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBC2EAC-9E30-4B81-8AEA-684BA5F6B338}">
+  <dimension ref="B2:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="35.6640625" customWidth="1"/>
+    <col min="3" max="3" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B20" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>